--- a/00_외교부_남정우/Data/Output/외교부레포트_남정우.xlsx
+++ b/00_외교부_남정우/Data/Output/외교부레포트_남정우.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\ICT_CoC\기업연계프로젝트_10월\과제3\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA_ICT_COC\00_외교부_남정우\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52B8D79-10A0-4478-8C94-80F92ADA7BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="25818" windowHeight="15618"/>
   </bookViews>
   <sheets>
     <sheet name="종합" sheetId="3" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="88">
   <si>
     <t>연도</t>
   </si>
@@ -41,10 +40,6 @@
   </si>
   <si>
     <t>당월집행액(원)</t>
-  </si>
-  <si>
-    <t>0000년 00월 자료</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>항목</t>
@@ -81,12 +76,235 @@
   <si>
     <t>집행액</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023년 11월 자료</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>한반도 평화 조성</t>
+  </si>
+  <si>
+    <t>북핵문제 협의지원</t>
+  </si>
+  <si>
+    <t>평화체제 구축지원</t>
+  </si>
+  <si>
+    <t>북미지역국가와의 전략적 특별협력관계 강화</t>
+  </si>
+  <si>
+    <t>동북아지역국가와의 전략적 협력관계 강화</t>
+  </si>
+  <si>
+    <t>아시아·태평양지역국가와의 전략적 협력관계 강화</t>
+  </si>
+  <si>
+    <t>정상외교</t>
+  </si>
+  <si>
+    <t>정상회의 참가 및 국빈영접</t>
+  </si>
+  <si>
+    <t>역내국가와의 협력 강화 및 지역별 협력 네트워크 구축</t>
+  </si>
+  <si>
+    <t>아세안 및 동남아지역국가와의 교류협력강화</t>
+  </si>
+  <si>
+    <t>유럽지역국가와의 교류협력강화</t>
+  </si>
+  <si>
+    <t>글로벌 네트워크 구축</t>
+  </si>
+  <si>
+    <t>중남미지역국가와의 교류협력강화</t>
+  </si>
+  <si>
+    <t>아중동지역국가와의 교류협력강화</t>
+  </si>
+  <si>
+    <t>국제기구분담금</t>
+  </si>
+  <si>
+    <t>다자관계 협력</t>
+  </si>
+  <si>
+    <t>국제기구 협력강화</t>
+  </si>
+  <si>
+    <t>원자력 비확산 외교 강화</t>
+  </si>
+  <si>
+    <t>원자력 및 군축·비확산 분야 양·다자 협력 강화</t>
+  </si>
+  <si>
+    <t>국제개발협력</t>
+  </si>
+  <si>
+    <t>아시아 및 태평양지역 국가원조</t>
+  </si>
+  <si>
+    <t>아프리카지역 국가원조</t>
+  </si>
+  <si>
+    <t>중남미지역 국가원조</t>
+  </si>
+  <si>
+    <t>중동CIS지역 국가원조</t>
+  </si>
+  <si>
+    <t>글로벌 프로그램</t>
+  </si>
+  <si>
+    <t>협력사업 지원</t>
+  </si>
+  <si>
+    <t>전략적협력강화</t>
+  </si>
+  <si>
+    <t>개발협력 및 인도적 지원</t>
+  </si>
+  <si>
+    <t>국제법적 대응 강화</t>
+  </si>
+  <si>
+    <t>국제법적 기반 구축 및 활동 강화</t>
+  </si>
+  <si>
+    <t>문화외교 및 국제교류</t>
+  </si>
+  <si>
+    <t>공공문화외교 강화</t>
+  </si>
+  <si>
+    <t>재외국민 해외안전관리</t>
+  </si>
+  <si>
+    <t>재외국민 보호</t>
+  </si>
+  <si>
+    <t>재외국민 영사서비스 제고 및 재외동포 역량강화</t>
+  </si>
+  <si>
+    <t>재외국민 영사서비스 지원</t>
+  </si>
+  <si>
+    <t>재외동포재단</t>
+  </si>
+  <si>
+    <t>여권업무 선진화</t>
+  </si>
+  <si>
+    <t>전자여권발급및서비스개선(수입대체경비)</t>
+  </si>
+  <si>
+    <t>경제외교</t>
+  </si>
+  <si>
+    <t>다자 경제외교 강화</t>
+  </si>
+  <si>
+    <t>지역 경제외교 강화</t>
+  </si>
+  <si>
+    <t>에너지 및 글로벌 이슈 대응 외교</t>
+  </si>
+  <si>
+    <t>에너지외교 및 기후변화녹색성장국제협력강화</t>
+  </si>
+  <si>
+    <t>외교정책연구 및 교육</t>
+  </si>
+  <si>
+    <t>외교전략 연구 및 교육훈련</t>
+  </si>
+  <si>
+    <t>외교전략 수립</t>
+  </si>
+  <si>
+    <t>재외공관운영</t>
+  </si>
+  <si>
+    <t>재외공관 인건비</t>
+  </si>
+  <si>
+    <t>재외공관 운영 기본경비</t>
+  </si>
+  <si>
+    <t>재외공관 운영</t>
+  </si>
+  <si>
+    <t>재외공관 행정직원 역량강화</t>
+  </si>
+  <si>
+    <t>재외공관 안전확보 및 시설개선</t>
+  </si>
+  <si>
+    <t>외교 행정지원</t>
+  </si>
+  <si>
+    <t>본부인건비</t>
+  </si>
+  <si>
+    <t>소속기관 인건비</t>
+  </si>
+  <si>
+    <t>본부 기본경비</t>
+  </si>
+  <si>
+    <t>소속기관 기본경비</t>
+  </si>
+  <si>
+    <t>외교 정보화</t>
+  </si>
+  <si>
+    <t>외교활동 업무지원</t>
+  </si>
+  <si>
+    <t>외교정책 대내외 이해제고</t>
+  </si>
+  <si>
+    <t>질병퇴치사업</t>
+  </si>
+  <si>
+    <t>기금운영비</t>
+  </si>
+  <si>
+    <t>글로벌 한국학 진흥</t>
+  </si>
+  <si>
+    <t>국제협력네트워킹</t>
+  </si>
+  <si>
+    <t>문화교류협력강화</t>
+  </si>
+  <si>
+    <t>국제교류정보화</t>
+  </si>
+  <si>
+    <t>여유자금운용</t>
+  </si>
+  <si>
+    <t>글로벌 인재양성</t>
+  </si>
+  <si>
+    <t>외교정책연구(R&amp;D)</t>
+  </si>
+  <si>
+    <t>재외동포권익향상</t>
+  </si>
+  <si>
+    <t>기금간거래</t>
+  </si>
+  <si>
+    <t>지정기부금운영</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -267,12 +485,6 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -300,65 +512,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <border>
         <left style="thin">
@@ -854,77 +1018,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA7AA09-1010-49FA-A171-141D645EFCFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.54296875" customWidth="1"/>
+    <col min="2" max="2" width="32.734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="52" thickBot="1" x14ac:dyDescent="1.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:3" ht="51.3" thickBot="1" x14ac:dyDescent="2.0499999999999998">
+      <c r="B1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="2:3" ht="51.3" thickBot="1" x14ac:dyDescent="2.0499999999999998">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="2:3" ht="52" thickBot="1" x14ac:dyDescent="1.3">
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="51" x14ac:dyDescent="2">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>505277523665</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="51" x14ac:dyDescent="2">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4">
+        <v>225812208742</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="51" x14ac:dyDescent="2">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4">
+        <v>461513183529</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="51" x14ac:dyDescent="2">
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4">
+        <v>340781860651</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="51" x14ac:dyDescent="2">
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4">
+        <v>241991473479</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="51.3" thickBot="1" x14ac:dyDescent="2.0499999999999998">
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4">
+        <v>310687787389</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="51.3" thickBot="1" x14ac:dyDescent="2.0499999999999998">
+      <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="51.5" x14ac:dyDescent="1.25">
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="2:3" ht="51.5" x14ac:dyDescent="1.25">
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="2:3" ht="51.5" x14ac:dyDescent="1.25">
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="2:3" ht="51.5" x14ac:dyDescent="1.25">
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="2:3" ht="51.5" x14ac:dyDescent="1.25">
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="2:3" ht="52" thickBot="1" x14ac:dyDescent="1.3">
-      <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="2:3" ht="52" thickBot="1" x14ac:dyDescent="1.3">
-      <c r="B9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="13"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C10" s="12"/>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -937,47 +1113,3728 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="7"/>
+    <col min="1" max="1" width="5.26171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.26171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5234375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C2" s="8"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5">
+        <v>182368000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5">
+        <v>121130400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5">
+        <v>304983800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5">
+        <v>71436650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5">
+        <v>286923210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4128534300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="5">
+        <v>174219640</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5">
+        <v>179398920</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5">
+        <v>131675260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1428025910</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="5">
+        <v>154712609190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="5">
+        <v>103389860</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5">
+        <v>56062160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="5">
+        <v>32352001000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="5">
+        <v>31802267000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="5">
+        <v>12963333000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="5">
+        <v>10884267000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="5">
+        <v>52416734000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="5">
+        <v>8821466990</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="5">
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="5">
+        <v>55828882400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="5">
+        <v>221636130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="5">
+        <v>342177760</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1213882960</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="5">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="5">
+        <v>13976750000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B28" s="5">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="5">
+        <v>537185010</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="5">
+        <v>133905050</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="5">
+        <v>227826990</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B31" s="5">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="5">
+        <v>548551150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B32" s="5">
+        <v>1</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="5">
+        <v>650877660</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B33" s="5">
+        <v>1</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="5">
+        <v>137461470</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B34" s="5">
+        <v>1</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="5">
+        <v>20019113470</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B35" s="5">
+        <v>1</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="5">
+        <v>39830443110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B36" s="5">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="5">
+        <v>48146010</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B37" s="5">
+        <v>1</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="5">
+        <v>13524126130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B38" s="5">
+        <v>1</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="5">
+        <v>11287922300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B39" s="5">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="5">
+        <v>7939987800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B40" s="5">
+        <v>1</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="5">
+        <v>776767990</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B41" s="5">
+        <v>1</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="5">
+        <v>3800523630</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B42" s="5">
+        <v>1</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="5">
+        <v>661271930</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B43" s="5">
+        <v>1</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1653603330</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B44" s="5">
+        <v>1</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="5">
+        <v>2972172380</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B45" s="5">
+        <v>1</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="5">
+        <v>62017000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B46" s="5">
+        <v>1</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="5">
+        <v>72334330</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B47" s="5">
+        <v>1</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" s="5">
+        <v>63200000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B48" s="5">
+        <v>1</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="5">
+        <v>1522598966</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B49" s="5">
+        <v>1</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E49" s="5">
+        <v>852369524</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B50" s="5">
+        <v>1</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" s="5">
+        <v>298460251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B51" s="5">
+        <v>1</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="5">
+        <v>18418380</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B52" s="5">
+        <v>1</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="5">
+        <v>1037395600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B53" s="5">
+        <v>1</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" s="5">
+        <v>13663688664</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:E154">
     <cfRule type="expression" dxfId="10" priority="2">
+      <formula>$A3&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:E1">
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>$A2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="5.26171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.26171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5234375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.734375" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5">
+        <v>18542400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5">
+        <v>259863260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5">
+        <v>618361320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5">
+        <v>668334040</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5">
+        <v>606408940</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5">
+        <v>778841740</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="5">
+        <v>361265970</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5">
+        <v>24459600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5">
+        <v>471680140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="5">
+        <v>185178410</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="5">
+        <v>20378366150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1375779240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5">
+        <v>434198110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="5">
+        <v>84462192180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="5">
+        <v>131433100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="5">
+        <v>9205074470</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2081973970</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="5">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="5">
+        <v>505840440</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="5">
+        <v>224400000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="5">
+        <v>9243144720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B22" s="5">
+        <v>2</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="5">
+        <v>77412990</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B23" s="5">
+        <v>2</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2526466780</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="5">
+        <v>2</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="5">
+        <v>34332130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="5">
+        <v>2</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="5">
+        <v>791756040</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B26" s="5">
+        <v>2</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="5">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="5">
+        <v>2</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="5">
+        <v>20634003640</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B28" s="5">
+        <v>2</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="5">
+        <v>11251556670</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B29" s="5">
+        <v>2</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="5">
+        <v>559300920</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B30" s="5">
+        <v>2</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="5">
+        <v>13794115600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B31" s="5">
+        <v>2</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="5">
+        <v>4876859150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B32" s="5">
+        <v>2</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="5">
+        <v>7196050240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B33" s="5">
+        <v>2</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="5">
+        <v>709981450</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B34" s="5">
+        <v>2</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="5">
+        <v>3550025770</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B35" s="5">
+        <v>2</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="5">
+        <v>560801750</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B36" s="5">
+        <v>2</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1602031310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B37" s="5">
+        <v>2</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="5">
+        <v>31330000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B38" s="5">
+        <v>2</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="5">
+        <v>2732719140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B39" s="5">
+        <v>2</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="5">
+        <v>204630880</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B40" s="5">
+        <v>2</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" s="5">
+        <v>84754310</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B41" s="5">
+        <v>2</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="5">
+        <v>20400000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B42" s="5">
+        <v>2</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="5">
+        <v>3434050690</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B43" s="5">
+        <v>2</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="5">
+        <v>687809914</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B44" s="5">
+        <v>2</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="5">
+        <v>948007674</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B45" s="5">
+        <v>2</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="5">
+        <v>620282907</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B46" s="5">
+        <v>2</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="5">
+        <v>185537097</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B47" s="5">
+        <v>2</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" s="5">
+        <v>955727754</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B48" s="5">
+        <v>2</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="5">
+        <v>15706125736</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A2:E154">
+    <cfRule type="expression" dxfId="8" priority="2">
+      <formula>$A3&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:E1">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>$A2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="5.26171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.26171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5234375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.734375" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B2" s="5">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5">
+        <v>73061070</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B3" s="5">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5">
+        <v>282109600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1436020970</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5">
+        <v>80103800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5">
+        <v>682424320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2718142570</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="5">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="5">
+        <v>13865450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="5">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5">
+        <v>374701430</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="5">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5">
+        <v>365158800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="5">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1697850420</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="5">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="5">
+        <v>54540610090</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B13" s="5">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="5">
+        <v>482676020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B14" s="5">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5">
+        <v>489700170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B15" s="5">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="5">
+        <v>64704002000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="5">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="5">
+        <v>63604534000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B17" s="5">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="5">
+        <v>25926666000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="5">
+        <v>3</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="5">
+        <v>21768534000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="5">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="5">
+        <v>49490268000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B20" s="5">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="5">
+        <v>13194934000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B21" s="5">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="5">
+        <v>400000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B22" s="5">
+        <v>3</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="5">
+        <v>9885477000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B23" s="5">
+        <v>3</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="5">
+        <v>419554820</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="5">
+        <v>3</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="5">
+        <v>7285199770</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="5">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="5">
+        <v>612815600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B26" s="5">
+        <v>3</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="5">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="5">
+        <v>3</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="5">
+        <v>13976750000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B28" s="5">
+        <v>3</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="5">
+        <v>75152250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B29" s="5">
+        <v>3</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="5">
+        <v>384971220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B30" s="5">
+        <v>3</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="5">
+        <v>4441594660</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B31" s="5">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="5">
+        <v>110848540</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B32" s="5">
+        <v>3</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="5">
+        <v>3045405120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B33" s="5">
+        <v>3</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="5">
+        <v>821119170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B34" s="5">
+        <v>3</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1028159540</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B35" s="5">
+        <v>3</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="5">
+        <v>2365960</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B36" s="5">
+        <v>3</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="5">
+        <v>22912614260</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B37" s="5">
+        <v>3</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="5">
+        <v>39398357210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B38" s="5">
+        <v>3</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1492189230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B39" s="5">
+        <v>3</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="5">
+        <v>13963341720</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B40" s="5">
+        <v>3</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="5">
+        <v>339511980</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B41" s="5">
+        <v>3</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="5">
+        <v>9632104030</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B42" s="5">
+        <v>3</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="5">
+        <v>878426970</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B43" s="5">
+        <v>3</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="5">
+        <v>4265630450</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B44" s="5">
+        <v>3</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="5">
+        <v>621064310</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B45" s="5">
+        <v>3</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" s="5">
+        <v>3959163670</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B46" s="5">
+        <v>3</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="5">
+        <v>155252540</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B47" s="5">
+        <v>3</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="5">
+        <v>64042400</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B48" s="5">
+        <v>3</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" s="5">
+        <v>243115520</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B49" s="5">
+        <v>3</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" s="5">
+        <v>51000000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B50" s="5">
+        <v>3</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" s="5">
+        <v>196244950</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B51" s="5">
+        <v>3</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" s="5">
+        <v>3696809570</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B52" s="5">
+        <v>3</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" s="5">
+        <v>1086065914</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B53" s="5">
+        <v>3</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" s="5">
+        <v>1903993581</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B54" s="5">
+        <v>3</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" s="5">
+        <v>610253576</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B55" s="5">
+        <v>3</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="5">
+        <v>232941158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B56" s="5">
+        <v>3</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" s="5">
+        <v>1134702745</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B57" s="5">
+        <v>3</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" s="5">
+        <v>10261537385</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:E154">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>$A2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="5.26171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.26171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5234375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.734375" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B2" s="5">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5">
+        <v>124523620</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5">
+        <v>394381880</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="5">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5">
+        <v>247913150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5">
+        <v>354951320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4235946850</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B7" s="5">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2348910180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="5">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="5">
+        <v>118546220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5">
+        <v>25836130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="5">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5">
+        <v>384077980</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="5">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="5">
+        <v>62219960</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="5">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="5">
+        <v>7250833390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B13" s="5">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="5">
+        <v>452671690</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B14" s="5">
+        <v>4</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5">
+        <v>105196580</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B15" s="5">
+        <v>4</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="5">
+        <v>28307999000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="5">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="5">
+        <v>27826983000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B17" s="5">
+        <v>4</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="5">
+        <v>11342917000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="5">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="5">
+        <v>9523733000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="5">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="5">
+        <v>23419249000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B20" s="5">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="5">
+        <v>5772783000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B21" s="5">
+        <v>4</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="5">
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B22" s="5">
+        <v>4</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="5">
+        <v>114495652070</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B23" s="5">
+        <v>4</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="5">
+        <v>332406180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="5">
+        <v>4</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="5">
+        <v>842841430</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="5">
+        <v>4</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="5">
+        <v>948024960</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B26" s="5">
+        <v>4</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="5">
+        <v>55000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="5">
+        <v>4</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1306290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B28" s="5">
+        <v>4</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="5">
+        <v>6403176100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B29" s="5">
+        <v>4</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="5">
+        <v>138879420</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B30" s="5">
+        <v>4</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="5">
+        <v>203297660</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B31" s="5">
+        <v>4</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="5">
+        <v>460274020</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B32" s="5">
+        <v>4</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="5">
+        <v>509233230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B33" s="5">
+        <v>4</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1636800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B34" s="5">
+        <v>4</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="5">
+        <v>22683866110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B35" s="5">
+        <v>4</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="5">
+        <v>2492965780</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B36" s="5">
+        <v>4</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1209958490</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B37" s="5">
+        <v>4</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="5">
+        <v>14377478860</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B38" s="5">
+        <v>4</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="5">
+        <v>7082490480</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B39" s="5">
+        <v>4</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="5">
+        <v>7254914140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B40" s="5">
+        <v>4</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="5">
+        <v>737921570</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B41" s="5">
+        <v>4</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="5">
+        <v>4000281860</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B42" s="5">
+        <v>4</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="5">
+        <v>444349000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B43" s="5">
+        <v>4</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="5">
+        <v>2914072220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B44" s="5">
+        <v>4</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="5">
+        <v>673858220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B45" s="5">
+        <v>4</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="5">
+        <v>160695410</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B46" s="5">
+        <v>4</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="5">
+        <v>85270520</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B47" s="5">
+        <v>4</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" s="5">
+        <v>24660000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B48" s="5">
+        <v>4</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="5">
+        <v>5333899480</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B49" s="5">
+        <v>4</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" s="5">
+        <v>2160413190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B50" s="5">
+        <v>4</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E50" s="5">
+        <v>2296102185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B51" s="5">
+        <v>4</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="5">
+        <v>619120040</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B52" s="5">
+        <v>4</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="5">
+        <v>20407551</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B53" s="5">
+        <v>4</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53" s="5">
+        <v>1167960345</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B54" s="5">
+        <v>4</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" s="5">
+        <v>18149774090</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A2:E154">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$A3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -990,151 +4847,980 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CABCC09-4E89-4F5D-80F0-DE0B26B76E6C}">
-  <dimension ref="A1:E2"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="7"/>
+    <col min="1" max="1" width="5.26171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.26171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5234375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C2" s="8"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B2" s="5">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5">
+        <v>90756770</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5">
+        <v>706268230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="5">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5">
+        <v>139642260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B5" s="5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5">
+        <v>49750170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5">
+        <v>593667700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3268495010</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="5">
+        <v>186401990</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="5">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5">
+        <v>317198370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="5">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5">
+        <v>360205240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="5">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="5">
+        <v>53863090</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="5">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="5">
+        <v>5705612490</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B13" s="5">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1037845340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B14" s="5">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5">
+        <v>66008590</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B15" s="5">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="5">
+        <v>25517999000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="5">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="5">
+        <v>25026983000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B17" s="5">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="5">
+        <v>8512917000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="5">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="5">
+        <v>9523733000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="5">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="5">
+        <v>23419249000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B20" s="5">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="5">
+        <v>5772783000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B21" s="5">
+        <v>5</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="5">
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B22" s="5">
+        <v>5</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="5">
+        <v>10863940420</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B23" s="5">
+        <v>5</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="5">
+        <v>264300990</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="5">
+        <v>5</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1959826770</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="5">
+        <v>5</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1147658920</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B26" s="5">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="5">
+        <v>3074670</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="5">
+        <v>5</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="5">
+        <v>4383322000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B28" s="5">
+        <v>5</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="5">
+        <v>-2259470</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B29" s="5">
+        <v>5</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="5">
+        <v>7786189380</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B30" s="5">
+        <v>5</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="5">
+        <v>50839740</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B31" s="5">
+        <v>5</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="5">
+        <v>179031820</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B32" s="5">
+        <v>5</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="5">
+        <v>88672570</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B33" s="5">
+        <v>5</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="5">
+        <v>576266920</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B34" s="5">
+        <v>5</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="5">
+        <v>173355560</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B35" s="5">
+        <v>5</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="5">
+        <v>21532502040</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B36" s="5">
+        <v>5</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1889281150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B37" s="5">
+        <v>5</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1847857640</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B38" s="5">
+        <v>5</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="5">
+        <v>12917790660</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B39" s="5">
+        <v>5</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="5">
+        <v>2198488490</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B40" s="5">
+        <v>5</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="5">
+        <v>6856660850</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B41" s="5">
+        <v>5</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="5">
+        <v>698073250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B42" s="5">
+        <v>5</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1661938540</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B43" s="5">
+        <v>5</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="5">
+        <v>757750370</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B44" s="5">
+        <v>5</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" s="5">
+        <v>5369213170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B45" s="5">
+        <v>5</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" s="5">
+        <v>3382667160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B46" s="5">
+        <v>5</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" s="5">
+        <v>141547700</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B47" s="5">
+        <v>5</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" s="5">
+        <v>111693670</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B48" s="5">
+        <v>5</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" s="5">
+        <v>44300000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B49" s="5">
+        <v>5</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" s="5">
+        <v>16252004690</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B50" s="5">
+        <v>5</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="5">
+        <v>891090672</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B51" s="5">
+        <v>5</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" s="5">
+        <v>2640689560</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B52" s="5">
+        <v>5</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" s="5">
+        <v>933881916</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B53" s="5">
+        <v>5</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="5">
+        <v>191099720</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B54" s="5">
+        <v>5</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="5">
+        <v>530690008</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B55" s="5">
+        <v>5</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" s="5">
+        <v>1061040917</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B56" s="5">
+        <v>5</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="5">
+        <v>22057611766</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:E154">
-    <cfRule type="expression" dxfId="9" priority="2">
-      <formula>$A3&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$A2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B4963C-8777-47D5-B8B1-28B42603349F}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C2" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:E154">
-    <cfRule type="expression" dxfId="8" priority="1">
-      <formula>$A2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD84A49F-9DE2-4E8F-B64E-F991100E14CD}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C2" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:E154">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$A3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1147,102 +5833,997 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D2945F-C340-4A1C-B6BD-E23A8B6D194D}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C2" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:E154">
-    <cfRule type="expression" dxfId="6" priority="2">
-      <formula>$A3&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$A2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F5D148-FF2A-4A42-BE4A-BB3A954245A0}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="7"/>
+    <col min="1" max="1" width="5.26171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.26171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5234375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C2" s="8"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B2" s="5">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5">
+        <v>15900770</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B3" s="5">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5">
+        <v>319014710</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="5">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5">
+        <v>629592910</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B5" s="5">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5">
+        <v>99026070</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B6" s="5">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1851631820</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B7" s="5">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3311800910</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="5">
+        <v>215623120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="5">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5">
+        <v>93858300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="5">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5">
+        <v>276861620</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1502124390</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="5">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="5">
+        <v>52783255950</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B13" s="5">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="5">
+        <v>390974720</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B14" s="5">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5">
+        <v>98474890</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B15" s="5">
+        <v>6</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="5">
+        <v>28336666000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="5">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="5">
+        <v>27826983000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B17" s="5">
+        <v>6</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="5">
+        <v>11342917000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="5">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="5">
+        <v>9523733000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="5">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="5">
+        <v>23419249000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B20" s="5">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="5">
+        <v>5772783000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B21" s="5">
+        <v>6</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="5">
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B22" s="5">
+        <v>6</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="5">
+        <v>159338220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B23" s="5">
+        <v>6</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="5">
+        <v>310910970</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="5">
+        <v>6</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="5">
+        <v>817935780</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="5">
+        <v>6</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="5">
+        <v>438309530</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B26" s="5">
+        <v>6</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="5">
+        <v>-255555810</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="5">
+        <v>6</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="5">
+        <v>-40204140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B28" s="5">
+        <v>6</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="5">
+        <v>-259803940</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B29" s="5">
+        <v>6</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="5">
+        <v>7882538730</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B30" s="5">
+        <v>6</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="5">
+        <v>101913170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B31" s="5">
+        <v>6</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="5">
+        <v>520091290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B32" s="5">
+        <v>6</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="5">
+        <v>275949240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B33" s="5">
+        <v>6</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1004822000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B34" s="5">
+        <v>6</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="5">
+        <v>36607590</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B35" s="5">
+        <v>6</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="5">
+        <v>22660310290</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B36" s="5">
+        <v>6</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="5">
+        <v>46299601380</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B37" s="5">
+        <v>6</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1899791940</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B38" s="5">
+        <v>6</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="5">
+        <v>16893105210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B39" s="5">
+        <v>6</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="5">
+        <v>6379994140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B40" s="5">
+        <v>6</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="5">
+        <v>7024873580</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B41" s="5">
+        <v>6</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="5">
+        <v>666640530</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B42" s="5">
+        <v>6</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="5">
+        <v>5143499120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B43" s="5">
+        <v>6</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="5">
+        <v>513318930</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B44" s="5">
+        <v>6</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" s="5">
+        <v>2380464720</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B45" s="5">
+        <v>6</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1229407370</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B46" s="5">
+        <v>6</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" s="5">
+        <v>259994160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B47" s="5">
+        <v>6</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" s="5">
+        <v>7365379930</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B48" s="5">
+        <v>6</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" s="5">
+        <v>36810000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B49" s="5">
+        <v>6</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="5">
+        <v>404887670</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B50" s="5">
+        <v>6</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" s="5">
+        <v>2044768070</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B51" s="5">
+        <v>6</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" s="5">
+        <v>387246321</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B52" s="5">
+        <v>6</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" s="5">
+        <v>1700696893</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B53" s="5">
+        <v>6</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" s="5">
+        <v>1489592194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B54" s="5">
+        <v>6</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="5">
+        <v>130830000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B55" s="5">
+        <v>6</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="5">
+        <v>222675697</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B56" s="5">
+        <v>6</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" s="5">
+        <v>1288843079</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B57" s="5">
+        <v>6</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" s="5">
+        <v>5261732355</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:E154">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$A3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
